--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zee/development/CS151_labs/Lab7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eileen Martinez\PycharmProjects\cs151-lab7-antonio_oreoluwa_jalen_lab07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF27D802-FB15-694F-BF0B-8F3CB3EC9386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6EE487-5CAE-4F3F-8419-5AA529C229D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
+    <workbookView xWindow="5960" yWindow="0" windowWidth="16690" windowHeight="15130" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>&lt;-- final overall cost</t>
   </si>
@@ -58,6 +49,15 @@
   </si>
   <si>
     <t>cost/sqft</t>
+  </si>
+  <si>
+    <t>hardwood</t>
+  </si>
+  <si>
+    <t>carpet</t>
+  </si>
+  <si>
+    <t>tile</t>
   </si>
 </sst>
 </file>
@@ -212,11 +212,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - Accent5" xfId="2" builtinId="47"/>
@@ -572,10 +572,10 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
@@ -585,22 +585,22 @@
     <col min="7" max="7" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="G1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -614,53 +614,107 @@
         <v>1</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1.39</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3">
+        <v>152.9</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="G3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="7">
+        <v>3.99</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3">
+        <v>335.16</v>
+      </c>
       <c r="E4" s="1"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="G4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7">
+        <v>4.99</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3">
+        <v>383.04</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3">
+        <v>299.39999999999998</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3">
+        <v>404.19</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>1504.69</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>0</v>
       </c>

--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zee/development/CS151_labs/Lab7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adebu\PycharmProjects\cs151-lab7-antonio_oreoluwa_jalen_lab07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF27D802-FB15-694F-BF0B-8F3CB3EC9386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA80314B-7F14-4829-BF7A-B1257D65440B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>&lt;-- final overall cost</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>cost/sqft</t>
+  </si>
+  <si>
+    <t>hardwood</t>
+  </si>
+  <si>
+    <t>carpet</t>
+  </si>
+  <si>
+    <t>tile</t>
   </si>
 </sst>
 </file>
@@ -212,11 +221,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - Accent5" xfId="2" builtinId="47"/>
@@ -273,9 +282,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -313,7 +322,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -419,7 +428,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -561,7 +570,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -571,36 +580,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3895EE92-EFA4-294F-86F8-6AC1B9331B60}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="23.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="G1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -614,53 +623,119 @@
         <v>1</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1.39</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3">
+        <f>IF(A3="hardwood", B3 * C3 * $H$2,
+   IF(A3="carpet", B3 * C3 * $H$3,
+   IF(A3="tile", B3 * C3 * $H$4, 0)))</f>
+        <v>166.79999999999998</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="G3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="7">
+        <v>3.99</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
+        <f>IF(A4="hardwood", B4 * C4 * $H$2,
+   IF(A4="carpet", B4 * C4 * $H$3,
+   IF(A4="tile", B4 * C4 * $H$4, 0)))</f>
+        <v>319.20000000000005</v>
+      </c>
       <c r="E4" s="1"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="G4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7">
+        <v>4.99</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" ref="D4:D7" si="0">IF(A5="hardwood", B5 * C5 * $H$2,
+   IF(A5="carpet", B5 * C5 * $H$3,
+   IF(A5="tile", B5 * C5 * $H$4, 0)))</f>
+        <v>1497</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>137.60999999999999</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>251.37</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <f>SUM(D3:D7)</f>
+        <v>2371.98</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>0</v>
       </c>

--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eileen Martinez\PycharmProjects\cs151-lab7-antonio_oreoluwa_jalen_lab07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adebu\PycharmProjects\cs151-lab7-antonio_oreoluwa_jalen_lab07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6EE487-5CAE-4F3F-8419-5AA529C229D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188C9848-0CFC-4756-BBA7-C2C9ED5AEC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="0" windowWidth="16690" windowHeight="15130" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -273,9 +284,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -313,7 +324,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -419,7 +430,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -561,7 +572,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -572,20 +583,20 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="23.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -600,7 +611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -621,7 +632,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -632,7 +643,8 @@
         <v>11</v>
       </c>
       <c r="D3" s="3">
-        <v>152.9</v>
+        <f>IF(A3="hardwood", B3 * C3 * $H$2, IF(A3="carpet", B3 * C3 * $H$3, IF(A3="tile", B3 * C3 * $H$4, 0)))</f>
+        <v>152.89999999999998</v>
       </c>
       <c r="E3" s="1"/>
       <c r="G3" s="7" t="s">
@@ -642,7 +654,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -653,6 +665,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="3">
+        <f t="shared" ref="D4:D7" si="0">IF(A4="hardwood", B4 * C4 * $H$2, IF(A4="carpet", B4 * C4 * $H$3, IF(A4="tile", B4 * C4 * $H$4, 0)))</f>
         <v>335.16</v>
       </c>
       <c r="E4" s="1"/>
@@ -663,7 +676,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -674,11 +687,12 @@
         <v>8</v>
       </c>
       <c r="D5" s="3">
+        <f t="shared" si="0"/>
         <v>383.04</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -689,11 +703,12 @@
         <v>10</v>
       </c>
       <c r="D6" s="3">
-        <v>299.39999999999998</v>
+        <f t="shared" si="0"/>
+        <v>299.40000000000003</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -704,16 +719,18 @@
         <v>9</v>
       </c>
       <c r="D7" s="3">
+        <f t="shared" si="0"/>
         <v>404.19</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3">
-        <v>1504.69</v>
+        <f>SUM(D3:D7)</f>
+        <v>1574.69</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>0</v>
